--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,52 +1,470 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="test1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="live_gui" sheetId="2" r:id="rId5"/>
+    <sheet name="live" sheetId="3" r:id="rId6"/>
+    <sheet name="locked_statements" sheetId="4" r:id="rId7"/>
+    <sheet name="budgets" sheetId="5" r:id="rId8"/>
+    <sheet name="client" sheetId="6" r:id="rId9"/>
+    <sheet name="login" sheetId="7" r:id="rId10"/>
+    <sheet name="workspace" sheetId="8" r:id="rId11"/>
+    <sheet name="reports" sheetId="9" r:id="rId12"/>
+    <sheet name="company" sheetId="10" r:id="rId13"/>
+    <sheet name="trial" sheetId="11" r:id="rId14"/>
+    <sheet name="metrics" sheetId="12" r:id="rId15"/>
   </sheets>
-  <definedNames/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+  <si>
+    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
+  </si>
+  <si>
+    <t>Numbers Sheet Name</t>
+  </si>
+  <si>
+    <t>Numbers Table Name</t>
+  </si>
+  <si>
+    <t>Excel Worksheet Name</t>
+  </si>
+  <si>
+    <t>live_gui</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>live_gui</t>
+    </r>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>live</t>
+    </r>
+  </si>
+  <si>
+    <t>locked_statements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>locked_statements</t>
+    </r>
+  </si>
+  <si>
+    <t>budgets</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>budgets</t>
+    </r>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>client</t>
+    </r>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>login</t>
+    </r>
+  </si>
+  <si>
+    <t>workspace</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>workspace</t>
+    </r>
+  </si>
+  <si>
+    <t>reports</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>reports</t>
+    </r>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>company</t>
+    </r>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>trial</t>
+    </r>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>metrics</t>
+    </r>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://app.reachreporting.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>ryan@reachreporting.com</t>
+    </r>
+  </si>
+  <si>
+    <t>rjanderson383</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://api.reachreporting.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>https://api-stg.reachreporting.com/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>juanluisrestituyo@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Password123</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://app-stg.reachreporting.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>juanluisrestituyo@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://api-stg.reachreporting.com/auth/login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>juan.restituyo@jobsity.io</t>
+    </r>
+  </si>
+  <si>
+    <t>Trial Active</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>https://app-stg.reachreporting.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>login</t>
+    </r>
+  </si>
+  <si>
+    <t>ARJSinClave35</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>randomuser85@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://app-stg.reachreporting.com/login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://app-stg.reachreporting.com/report/edit/1690</t>
+    </r>
+  </si>
+  <si>
+    <t>company_email</t>
+  </si>
+  <si>
+    <t>company_password</t>
+  </si>
+  <si>
+    <t>conection_type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>juanluis2@mail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>pass2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <color indexed="8"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <color indexed="8"/>
-      <sz val="13"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
-      <color indexed="15"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <u val="single"/>
+      <sz val="12"/>
+      <color indexed="13"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,6 +472,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -69,8 +493,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -81,106 +511,6 @@
     <border>
       <left style="thin">
         <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
@@ -200,14 +530,205 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
       </left>
       <right/>
       <top/>
@@ -216,102 +737,254 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="60">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="ff000000"/>
@@ -323,13 +996,15 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -361,13 +1036,13 @@
         <a:srgbClr val="61D836"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFD932"/>
+        <a:srgbClr val="FAE232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="FF644E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="FF42A1"/>
+        <a:srgbClr val="EF5FA7"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -1392,139 +2067,1723 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="4" width="33.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="16.65" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" ht="16.65" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="12"/>
+      <c r="C14" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" ht="13" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" ht="13" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" ht="13" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" ht="13" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="12"/>
+      <c r="C20" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="14">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" ht="13" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" ht="13" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="12"/>
+      <c r="C22" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" ht="13" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" ht="13" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" ht="13" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" ht="13" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" ht="13" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" ht="13" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="12"/>
+      <c r="C28" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" ht="13" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" ht="13" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s" s="14">
+        <v>24</v>
+      </c>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" ht="16.65" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" ht="16.65" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" t="s" s="18">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'live_gui'!R1C1" tooltip="" display="live_gui"/>
+    <hyperlink ref="D12" location="'live_gui'!R1C1" tooltip="" display="live_gui"/>
+    <hyperlink ref="D14" location="'live'!R1C1" tooltip="" display="live"/>
+    <hyperlink ref="D16" location="'locked_statements'!R1C1" tooltip="" display="locked_statements"/>
+    <hyperlink ref="D18" location="'budgets'!R1C1" tooltip="" display="budgets"/>
+    <hyperlink ref="D20" location="'client'!R1C1" tooltip="" display="client"/>
+    <hyperlink ref="D22" location="'login'!R1C1" tooltip="" display="login"/>
+    <hyperlink ref="D24" location="'workspace'!R1C1" tooltip="" display="workspace"/>
+    <hyperlink ref="D26" location="'reports'!R1C1" tooltip="" display="reports"/>
+    <hyperlink ref="D28" location="'company'!R1C1" tooltip="" display="company"/>
+    <hyperlink ref="D30" location="'trial'!R1C1" tooltip="" display="trial"/>
+    <hyperlink ref="D32" location="'metrics'!R1C1" tooltip="" display="metrics"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="31.6719" customWidth="1" style="1" min="1" max="1"/>
-    <col width="31.1719" customWidth="1" style="1" min="2" max="2"/>
-    <col width="16.3516" customWidth="1" style="1" min="3" max="5"/>
-    <col width="16.3516" customWidth="1" style="1" min="6" max="16384"/>
+    <col min="1" max="1" width="37.5" style="46" customWidth="1"/>
+    <col min="2" max="2" width="22.8516" style="46" customWidth="1"/>
+    <col min="3" max="5" width="16.3516" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" s="18">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Resultado</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="4" t="n"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1" s="18">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>https://www.google.com.do</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
-        <is>
-          <t>Librerias de Python</t>
-        </is>
-      </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="14.7" customHeight="1" s="18">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Utiles escolares</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="9" t="n"/>
-    </row>
-    <row r="4" ht="14.7" customHeight="1" s="18">
-      <c r="A4" s="14" t="n"/>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="13" t="n"/>
-      <c r="D4" s="13" t="n"/>
-      <c r="E4" s="9" t="n"/>
-    </row>
-    <row r="5" ht="14.7" customHeight="1" s="18">
-      <c r="A5" s="14" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="13" t="n"/>
-      <c r="E5" s="9" t="n"/>
-    </row>
-    <row r="6" ht="14.7" customHeight="1" s="18">
-      <c r="A6" s="14" t="n"/>
-      <c r="B6" s="13" t="n"/>
-      <c r="C6" s="13" t="n"/>
-      <c r="D6" s="13" t="n"/>
-      <c r="E6" s="9" t="n"/>
-    </row>
-    <row r="7" ht="14.7" customHeight="1" s="18">
-      <c r="A7" s="14" t="n"/>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="9" t="n"/>
-    </row>
-    <row r="8" ht="14.7" customHeight="1" s="18">
-      <c r="A8" s="14" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="9" t="n"/>
-    </row>
-    <row r="9" ht="14.7" customHeight="1" s="18">
-      <c r="A9" s="14" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="9" t="n"/>
-    </row>
-    <row r="10" ht="14.7" customHeight="1" s="18">
-      <c r="A10" s="15" t="n"/>
-      <c r="B10" s="16" t="n"/>
-      <c r="C10" s="16" t="n"/>
-      <c r="D10" s="16" t="n"/>
-      <c r="E10" s="17" t="n"/>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="s" s="21">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>55</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="24">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s" s="25">
+        <v>40</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" ht="14.05" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="" tooltip="" display="https://www.google.com.do" r:id="rId1"/>
-    <hyperlink ref="A3" location="" tooltip="" display="https://www.amazon.com" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="https://app-stg.reachreporting.com/login"/>
+    <hyperlink ref="B2" r:id="rId2" location="" tooltip="" display="juan.restituyo@jobsity.io"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="34.8516" style="55" customWidth="1"/>
+    <col min="2" max="2" width="22" style="55" customWidth="1"/>
+    <col min="3" max="5" width="16.3516" style="55" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" t="s" s="21">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>55</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="24">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s" s="25">
+        <v>40</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" ht="14.7" customHeight="1">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="https://app-stg.reachreporting.com/login"/>
+    <hyperlink ref="B2" r:id="rId2" location="" tooltip="" display="juanluis2@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="59" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="s" s="21">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s" s="21">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s" s="21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="44.55" customHeight="1">
+      <c r="A2" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="24">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s" s="25">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s" s="25">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s" s="25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="14.05" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="https://app-stg.reachreporting.com/login"/>
+    <hyperlink ref="B2" r:id="rId2" location="" tooltip="" display="juanluisrestituyo@hotmail.com"/>
+    <hyperlink ref="D2" r:id="rId3" location="" tooltip="" display="juan.restituyo@jobsity.io"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>29</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" ht="38.7" customHeight="1">
+      <c r="A2" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="24">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="25">
+        <v>32</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="https://app.reachreporting.com/login"/>
+    <hyperlink ref="B2" r:id="rId2" location="" tooltip="" display="ryan@reachreporting.com"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>34</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" ht="38.25" customHeight="1">
+      <c r="A2" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s" s="24">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="25">
+        <v>32</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" ht="14.05" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="https://api.reachreporting.com/"/>
+    <hyperlink ref="B2" r:id="rId2" location="" tooltip="" display="ryan@reachreporting.com"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="45" style="31" customWidth="1"/>
+    <col min="2" max="2" width="30.3516" style="31" customWidth="1"/>
+    <col min="3" max="3" width="16.8516" style="31" customWidth="1"/>
+    <col min="4" max="6" width="16.3516" style="31" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="32">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s" s="32">
+        <v>37</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="34">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="35">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s" s="24">
+        <v>40</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="juanluisrestituyo@hotmail.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup orientation="portrait" scale="72" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" pageOrder="downThenOver"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader/>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.35" customHeight="1">
+      <c r="A1" t="s" s="21">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>37</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" ht="44.65" customHeight="1">
+      <c r="A2" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="25">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s" s="25">
+        <v>40</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="https://app-stg.reachreporting.com/"/>
+    <hyperlink ref="B2" r:id="rId2" location="" tooltip="" display="juanluisrestituyo@hotmail.com"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.6719" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="40" customWidth="1"/>
+    <col min="3" max="5" width="16.3516" style="40" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.35" customHeight="1">
+      <c r="A1" t="s" s="21">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>37</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" ht="16.65" customHeight="1">
+      <c r="A2" t="s" s="39">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="25">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="25">
+        <v>40</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="https://app-stg.reachreporting.com/"/>
+    <hyperlink ref="B2" r:id="rId2" location="" tooltip="" display="juanluisrestituyo@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="42" style="41" customWidth="1"/>
+    <col min="2" max="2" width="28" style="41" customWidth="1"/>
+    <col min="3" max="6" width="16.3516" style="41" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>37</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" t="s" s="34">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s" s="42">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s" s="24">
+        <v>40</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" ht="14.05" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="https://api-stg.reachreporting.com/auth/login"/>
+    <hyperlink ref="B2" r:id="rId2" location="" tooltip="" display="juan.restituyo@jobsity.io"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.1719" style="44" customWidth="1"/>
+    <col min="2" max="2" width="24.8516" style="44" customWidth="1"/>
+    <col min="3" max="5" width="16.3516" style="44" customWidth="1"/>
+    <col min="6" max="6" width="27" style="44" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>29</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" t="s" s="21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" ht="16.55" customHeight="1">
+      <c r="A2" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="24">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s" s="25">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s" s="25">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s" s="25">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s" s="25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="14.05" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="https://app-stg.reachreporting.com/login"/>
+    <hyperlink ref="B2" r:id="rId2" location="" tooltip="" display="juanluisrestituyo@hotmail.com"/>
+    <hyperlink ref="D2" r:id="rId3" location="" tooltip="" display="juan.restituyo@jobsity.io"/>
+    <hyperlink ref="F2" r:id="rId4" location="" tooltip="" display="randomuser85@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="42.3516" style="45" customWidth="1"/>
+    <col min="2" max="2" width="26.3516" style="45" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="45" customWidth="1"/>
+    <col min="4" max="4" width="51.6719" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.35" customHeight="1">
+      <c r="A1" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" t="s" s="23">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s" s="24">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s" s="25">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s" s="25">
+        <v>52</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="https://app-stg.reachreporting.com/login"/>
+    <hyperlink ref="B2" r:id="rId2" location="" tooltip="" display="juanluisrestituyo@hotmail.com"/>
+    <hyperlink ref="D2" r:id="rId3" location="" tooltip="" display="https://app-stg.reachreporting.com/report/edit/1690"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>